--- a/config_9.14/activity_ty_task_config.xlsx
+++ b/config_9.14/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
   <si>
     <t>index|索引</t>
   </si>
@@ -2361,10 +2361,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>120,121,122,123,124,125,126,127,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2453,10 +2449,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>129,130,131,132,133,134,135,136,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2705,6 +2697,143 @@
       </rPr>
       <t>47,148,149,150,151</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3300,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3594,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3672,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3693,7 +3822,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3714,7 +3843,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3735,7 +3864,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3756,7 +3885,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3894,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3914,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3926,11 +4055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T156"/>
+  <dimension ref="A1:T168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148:XFD152"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G163" sqref="A1:T168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7536,7 +7665,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -7562,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -7588,7 +7717,7 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -7614,7 +7743,7 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
@@ -7640,7 +7769,7 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -7666,7 +7795,7 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
@@ -7692,7 +7821,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -7704,7 +7833,7 @@
         <v>382</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7718,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
@@ -7727,7 +7856,7 @@
         <v>363</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="I137" s="42" t="s">
         <v>388</v>
@@ -7744,13 +7873,13 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="H138" s="42" t="s">
         <v>384</v>
@@ -7770,19 +7899,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H139" s="54" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7796,19 +7925,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E140" s="52">
         <v>1</v>
       </c>
       <c r="G140" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H140" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="H140" s="54" t="s">
-        <v>413</v>
-      </c>
       <c r="I140" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7822,19 +7951,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7848,19 +7977,19 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H142" s="54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7874,19 +8003,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7900,19 +8029,19 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7926,19 +8055,19 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E145" s="52">
+        <v>1</v>
+      </c>
+      <c r="G145" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="E145" s="52">
-        <v>1</v>
-      </c>
-      <c r="G145" s="54" t="s">
-        <v>411</v>
-      </c>
       <c r="H145" s="54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7952,19 +8081,19 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E146" s="52">
         <v>1</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H146" s="54" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7978,19 +8107,19 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H147" s="54" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I147" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8004,19 +8133,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8030,19 +8159,19 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8056,19 +8185,19 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8082,19 +8211,19 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8108,19 +8237,19 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8134,19 +8263,19 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8160,19 +8289,19 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8186,19 +8315,19 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8212,19 +8341,331 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H156" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="I156" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="I156" s="54" t="s">
-        <v>422</v>
+    </row>
+    <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="53">
+        <v>156</v>
+      </c>
+      <c r="B157" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C157" s="52">
+        <v>3</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="E157" s="52">
+        <v>1</v>
+      </c>
+      <c r="G157" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="H157" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I157" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="53">
+        <v>157</v>
+      </c>
+      <c r="B158" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C158" s="52">
+        <v>10</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="E158" s="52">
+        <v>2</v>
+      </c>
+      <c r="G158" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H158" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="I158" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="53">
+        <v>158</v>
+      </c>
+      <c r="B159" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C159" s="52">
+        <v>20</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="E159" s="52">
+        <v>3</v>
+      </c>
+      <c r="G159" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H159" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I159" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="53">
+        <v>159</v>
+      </c>
+      <c r="B160" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C160" s="52">
+        <v>30</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="E160" s="52">
+        <v>4</v>
+      </c>
+      <c r="G160" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H160" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="I160" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="53">
+        <v>160</v>
+      </c>
+      <c r="B161" s="52">
+        <v>1000772</v>
+      </c>
+      <c r="C161" s="52">
+        <v>10</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="E161" s="52">
+        <v>1</v>
+      </c>
+      <c r="G161" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H161" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="I161" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="53">
+        <v>161</v>
+      </c>
+      <c r="B162" s="52">
+        <v>1000772</v>
+      </c>
+      <c r="C162" s="52">
+        <v>20</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="E162" s="52">
+        <v>2</v>
+      </c>
+      <c r="G162" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H162" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="53">
+        <v>162</v>
+      </c>
+      <c r="B163" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C163" s="52">
+        <v>18</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="E163" s="52">
+        <v>1</v>
+      </c>
+      <c r="G163" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H163" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I163" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="53">
+        <v>163</v>
+      </c>
+      <c r="B164" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C164" s="52">
+        <v>48</v>
+      </c>
+      <c r="D164" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="E164" s="52">
+        <v>2</v>
+      </c>
+      <c r="G164" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H164" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="I164" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="53">
+        <v>164</v>
+      </c>
+      <c r="B165" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C165" s="52">
+        <v>88</v>
+      </c>
+      <c r="D165" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E165" s="52">
+        <v>3</v>
+      </c>
+      <c r="G165" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H165" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I165" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="53">
+        <v>165</v>
+      </c>
+      <c r="B166" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C166" s="52">
+        <v>128</v>
+      </c>
+      <c r="D166" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="E166" s="52">
+        <v>4</v>
+      </c>
+      <c r="G166" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H166" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="I166" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="53">
+        <v>166</v>
+      </c>
+      <c r="B167" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C167" s="52">
+        <v>188</v>
+      </c>
+      <c r="D167" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="E167" s="52">
+        <v>5</v>
+      </c>
+      <c r="G167" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H167" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="I167" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="53">
+        <v>167</v>
+      </c>
+      <c r="B168" s="52">
+        <v>1000774</v>
+      </c>
+      <c r="C168" s="52">
+        <v>3</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="E168" s="52">
+        <v>1</v>
+      </c>
+      <c r="G168" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H168" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="I168" s="54" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/config_9.14/activity_ty_task_config.xlsx
+++ b/config_9.14/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -2662,10 +2662,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>143.144.145,146</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -2834,6 +2830,10 @@
   </si>
   <si>
     <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
         <v>382</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -8367,19 +8367,19 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H157" s="54" t="s">
         <v>378</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8393,19 +8393,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H158" s="54" t="s">
         <v>379</v>
       </c>
       <c r="I158" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8419,19 +8419,19 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>266</v>
       </c>
       <c r="I159" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8445,19 +8445,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H160" s="54" t="s">
         <v>381</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8471,19 +8471,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8497,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8523,19 +8523,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H163" s="54" t="s">
         <v>378</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8549,19 +8549,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H164" s="54" t="s">
         <v>379</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8575,19 +8575,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>266</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8601,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H166" s="54" t="s">
         <v>381</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8627,19 +8627,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8653,19 +8653,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
